--- a/simplepower/models/grid_model_data/grid_data6.xlsx
+++ b/simplepower/models/grid_model_data/grid_data6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA52A9D-7CCD-4846-BC71-5E352C4DFCB6}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FABADC-331F-4389-8B73-6FB40FDB18D1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Load 5</t>
+  </si>
+  <si>
+    <t>s_base_mva</t>
+  </si>
+  <si>
+    <t>g_shunt_pu</t>
+  </si>
+  <si>
+    <t>b_shunt_pu</t>
   </si>
 </sst>
 </file>
@@ -247,10 +256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3966F5-6D5F-4BEE-B178-3351115A4B09}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +907,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF97191-B8C8-4B12-8921-F601069D1D4E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,106 +918,178 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/simplepower/models/grid_model_data/grid_data6.xlsx
+++ b/simplepower/models/grid_model_data/grid_data6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FABADC-331F-4389-8B73-6FB40FDB18D1}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8C21C4-0F99-4E88-A690-B4A1A82C942F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>b_shunt_pu</t>
+  </si>
+  <si>
+    <t>v_base_kV</t>
   </si>
 </sst>
 </file>
@@ -256,6 +259,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3966F5-6D5F-4BEE-B178-3351115A4B09}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1161,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C15A9-E0D3-48E6-90F6-6A9120B37C7B}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1180,7 @@
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,33 +1194,36 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
     </row>
